--- a/biology/Botanique/Prunus_×gondouinii/Prunus_×gondouinii.xlsx
+++ b/biology/Botanique/Prunus_×gondouinii/Prunus_×gondouinii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prunus_%C3%97gondouinii</t>
+          <t>Prunus_×gondouinii</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prunus ×gondouinii est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un arbuste hybride entre Prunus avium et Prunus cerasus[1].
-Cette espèce a reçu divers noms comme Prunus acida Dum, Cerasus regalis, P. avium ssp. regalis mais le nom le plus utilisé est Prunus ×gondouinii Rehd. En français, on trouve le nom de Cerisier intermédiaire dans un document de l'INRA[1] et en anglais le terme générique de duke cherry dans Flora Europaea[2]. C'est une espèce allotétraploïde (AAAF).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prunus ×gondouinii est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un arbuste hybride entre Prunus avium et Prunus cerasus.
+Cette espèce a reçu divers noms comme Prunus acida Dum, Cerasus regalis, P. avium ssp. regalis mais le nom le plus utilisé est Prunus ×gondouinii Rehd. En français, on trouve le nom de Cerisier intermédiaire dans un document de l'INRA et en anglais le terme générique de duke cherry dans Flora Europaea. C'est une espèce allotétraploïde (AAAF).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prunus_%C3%97gondouinii</t>
+          <t>Prunus_×gondouinii</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">P. ×gondouinii est un arbuste pouvant atteindre 6 mètres de haut. Il croît lentement et devient très compact en vieillissant.
 Les feuilles sont elliptiques, de 5-9 cm de long, d'un vert sombre bleuté.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prunus_%C3%97gondouinii</t>
+          <t>Prunus_×gondouinii</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +561,16 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cerisier intermédiaire préfère les sols bien drainés, les situations ensoleillées, protégées du vent.
-De nombreuses variétés ont été sélectionnées. Elles sont cultivées à moins grande échelle que celles de P. avium et P. cerasus[3].
+De nombreuses variétés ont été sélectionnées. Elles sont cultivées à moins grande échelle que celles de P. avium et P. cerasus.
 Les cultivars sont divisés en :
 à jus coloré : cerises anglaises (duke cherry)
 à jus clair : cerises royales
-L'analyse génétique des marqueurs AFLP[3] a décelé quelques erreurs d'assignation spécifique :
+L'analyse génétique des marqueurs AFLP a décelé quelques erreurs d'assignation spécifique :
 l'Anglaise Hâtive (May Duke, Royale Hâtive) ne reçoit plus l'assignation a priori P. ×gondouinii mais P. avium ; inversement, les assignations a priori P. avium du Gros guin de Cœur, Guigne Boissière et Guin des Charentes deviennent a posteriori P. ×gondouinii. De même, l'assignation a priori de P. cerasus de la griotte de Provence et de la guigne Boissière devient a posteriori P. ×gondouinii.
 </t>
         </is>
